--- a/統計管制與最佳化方法概論/homework/my_homework/HW10/hw_10.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/HW10/hw_10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\統計管制與最佳化方法概論\homework\my_homework\HW10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E6C014-1B5F-4D6F-98CC-E42328BAD7FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4733AA-FA44-4752-8F88-3D457E7B9AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{8B83F656-2802-450E-A5D4-A145C55AC87B}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{8B83F656-2802-450E-A5D4-A145C55AC87B}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -11821,7 +11821,7 @@
   <dimension ref="A1:AY41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:F41"/>
+      <selection activeCell="H21" sqref="H21:Y21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>

--- a/統計管制與最佳化方法概論/homework/my_homework/HW10/hw_10.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/HW10/hw_10.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\統計管制與最佳化方法概論\homework\my_homework\HW10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\institute_information\統計管制與最佳化方法概論\homework\my_homework\HW10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4733AA-FA44-4752-8F88-3D457E7B9AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A6C02D-FCCC-4233-920A-E115A8884C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{8B83F656-2802-450E-A5D4-A145C55AC87B}"/>
+    <workbookView xWindow="4360" yWindow="2630" windowWidth="19200" windowHeight="11460" activeTab="2" xr2:uid="{8B83F656-2802-450E-A5D4-A145C55AC87B}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -7280,14 +7280,14 @@
       <selection activeCell="AF23" sqref="AF23:AL41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="7" max="17" width="9" customWidth="1"/>
     <col min="22" max="22" width="9" customWidth="1"/>
-    <col min="23" max="23" width="8.875" customWidth="1"/>
+    <col min="23" max="23" width="8.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -7303,7 +7303,7 @@
       <c r="AB1" s="11"/>
       <c r="AC1" s="11"/>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -7443,7 +7443,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -7621,7 +7621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -7799,7 +7799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -7977,7 +7977,7 @@
         <v>-46.503884802543453</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -8155,7 +8155,7 @@
         <v>-28.551151607717809</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -8333,7 +8333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>6</v>
       </c>
@@ -8511,7 +8511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7</v>
       </c>
@@ -8689,7 +8689,7 @@
         <v>-61.091987528426628</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>8</v>
       </c>
@@ -8867,7 +8867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>9</v>
       </c>
@@ -9045,7 +9045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>10</v>
       </c>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>11</v>
       </c>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>12</v>
       </c>
@@ -9579,7 +9579,7 @@
         <v>-43.860409462221085</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>13</v>
       </c>
@@ -9757,7 +9757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>14</v>
       </c>
@@ -9935,7 +9935,7 @@
         <v>-32.798949800116382</v>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>15</v>
       </c>
@@ -10113,7 +10113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>16</v>
       </c>
@@ -10291,7 +10291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>17</v>
       </c>
@@ -10469,7 +10469,7 @@
         <v>-75.243531233068538</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>18</v>
       </c>
@@ -10647,7 +10647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.4">
       <c r="F21" s="9">
         <f>1/6*SUM(F3:F20)</f>
         <v>-18.414433968812592</v>
@@ -10793,7 +10793,7 @@
         <v>-48.008319072348975</v>
       </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.4">
       <c r="I23" t="s">
         <v>8</v>
       </c>
@@ -10831,7 +10831,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -10883,7 +10883,7 @@
         <v>-20.386748254671865</v>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>1</v>
       </c>
@@ -10935,7 +10935,7 @@
         <v>-48.188646102182318</v>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>1</v>
       </c>
@@ -10987,7 +10987,7 @@
         <v>-61.432127821740337</v>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>1</v>
       </c>
@@ -11039,7 +11039,7 @@
         <v>-24.431660522656323</v>
       </c>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>2</v>
       </c>
@@ -11091,7 +11091,7 @@
         <v>-46.703733597472279</v>
       </c>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>2</v>
       </c>
@@ -11143,7 +11143,7 @@
         <v>-58.872128058465933</v>
       </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>2</v>
       </c>
@@ -11195,7 +11195,7 @@
         <v>-38.248102164507316</v>
       </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>3</v>
       </c>
@@ -11247,7 +11247,7 @@
         <v>-52.725041574509376</v>
       </c>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>3</v>
       </c>
@@ -11299,7 +11299,7 @@
         <v>-39.034378439577843</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>3</v>
       </c>
@@ -11351,7 +11351,7 @@
         <v>-37.336971817681544</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>1</v>
       </c>
@@ -11403,7 +11403,7 @@
         <v>-43.979006925242544</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>1</v>
       </c>
@@ -11455,7 +11455,7 @@
         <v>-48.69154343567044</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>1</v>
       </c>
@@ -11507,7 +11507,7 @@
         <v>-49.680857866694431</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>2</v>
       </c>
@@ -11559,7 +11559,7 @@
         <v>-39.276635550479156</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>2</v>
       </c>
@@ -11611,7 +11611,7 @@
         <v>-41.05002876142094</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>2</v>
       </c>
@@ -11663,7 +11663,7 @@
         <v>-44.065332084338323</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>3</v>
       </c>
@@ -11715,7 +11715,7 @@
         <v>-37.933871021907223</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>3</v>
       </c>
@@ -11767,7 +11767,7 @@
         <v>-48.008319072348975</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>3</v>
       </c>
@@ -11820,16 +11820,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D467BCFD-F874-4036-8892-9940ECFC1125}">
   <dimension ref="A1:AY41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="H21" sqref="H21:Y21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="6" max="6" width="12.25" customWidth="1"/>
+    <col min="6" max="6" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
@@ -11849,7 +11849,7 @@
       <c r="AF1" s="11"/>
       <c r="AG1" s="11"/>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -12001,7 +12001,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -12195,7 +12195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -12389,7 +12389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -12583,7 +12583,7 @@
         <v>38.346955002008265</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -12777,7 +12777,7 @@
         <v>40.992520049718173</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -12971,7 +12971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>6</v>
       </c>
@@ -13165,7 +13165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7</v>
       </c>
@@ -13359,7 +13359,7 @@
         <v>45.727159268045511</v>
       </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>8</v>
       </c>
@@ -13553,7 +13553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>9</v>
       </c>
@@ -13747,7 +13747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>10</v>
       </c>
@@ -13941,7 +13941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>11</v>
       </c>
@@ -14135,7 +14135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>12</v>
       </c>
@@ -14329,7 +14329,7 @@
         <v>42.441368657218362</v>
       </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>13</v>
       </c>
@@ -14523,7 +14523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>14</v>
       </c>
@@ -14717,7 +14717,7 @@
         <v>40.167203490921317</v>
       </c>
     </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>15</v>
       </c>
@@ -14911,7 +14911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>16</v>
       </c>
@@ -15105,7 +15105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>17</v>
       </c>
@@ -15299,7 +15299,7 @@
         <v>26.914936065947259</v>
       </c>
     </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>18</v>
       </c>
@@ -15493,7 +15493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.4">
       <c r="H21" s="9">
         <f>SUM(H3:H20)/6</f>
         <v>39.60813245494419</v>
@@ -15639,7 +15639,7 @@
         <v>39.098357088976485</v>
       </c>
     </row>
-    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -15713,7 +15713,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>1</v>
       </c>
@@ -15765,7 +15765,7 @@
         <v>41.901467325876688</v>
       </c>
     </row>
-    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>1</v>
       </c>
@@ -15817,7 +15817,7 @@
         <v>44.437562917961593</v>
       </c>
     </row>
-    <row r="26" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>1</v>
       </c>
@@ -15869,7 +15869,7 @@
         <v>37.242517146034011</v>
       </c>
     </row>
-    <row r="27" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>2</v>
       </c>
@@ -15921,7 +15921,7 @@
         <v>43.683477487265719</v>
       </c>
     </row>
-    <row r="28" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>2</v>
       </c>
@@ -15973,7 +15973,7 @@
         <v>38.85079953809457</v>
       </c>
     </row>
-    <row r="29" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>2</v>
       </c>
@@ -16025,7 +16025,7 @@
         <v>41.047270364512009</v>
       </c>
     </row>
-    <row r="30" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>3</v>
       </c>
@@ -16077,7 +16077,7 @@
         <v>41.951246119450225</v>
       </c>
     </row>
-    <row r="31" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>3</v>
       </c>
@@ -16129,7 +16129,7 @@
         <v>45.509764511904685</v>
       </c>
     </row>
-    <row r="32" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>3</v>
       </c>
@@ -16181,7 +16181,7 @@
         <v>36.120536758517382</v>
       </c>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>1</v>
       </c>
@@ -16233,7 +16233,7 @@
         <v>44.020757240723349</v>
       </c>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>1</v>
       </c>
@@ -16285,7 +16285,7 @@
         <v>36.500395995415793</v>
       </c>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>1</v>
       </c>
@@ -16337,7 +16337,7 @@
         <v>43.060394153733142</v>
       </c>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>2</v>
       </c>
@@ -16389,7 +16389,7 @@
         <v>38.381173875176053</v>
       </c>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>2</v>
       </c>
@@ -16441,7 +16441,7 @@
         <v>40.346391698747787</v>
       </c>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>2</v>
       </c>
@@ -16493,7 +16493,7 @@
         <v>44.853981815948451</v>
       </c>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>3</v>
       </c>
@@ -16545,7 +16545,7 @@
         <v>43.770107665278495</v>
       </c>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>3</v>
       </c>
@@ -16597,7 +16597,7 @@
         <v>40.713082635617319</v>
       </c>
     </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>3</v>
       </c>
@@ -16664,23 +16664,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A9DEA7A-8516-4016-959E-3CC158D3EA9F}">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12:J12"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.25" customWidth="1"/>
-    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="12.26953125" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7265625" customWidth="1"/>
+    <col min="11" max="11" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
         <v>36</v>
       </c>
@@ -16696,7 +16696,7 @@
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -16728,7 +16728,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -16764,7 +16764,7 @@
         <v>3.2437137880041575</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -16800,7 +16800,7 @@
         <v>-2.3430495918628651</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -16836,7 +16836,7 @@
         <v>0.75739698949278988</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -16872,7 +16872,7 @@
         <v>1.8665450237757071</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -16908,7 +16908,7 @@
         <v>-2.8126752547813823</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -16944,7 +16944,7 @@
         <v>2.5762585353210596</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -16968,7 +16968,7 @@
         <v>41.193849129957435</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B10">
         <f>B9+SUM(C3:C8)</f>
         <v>-57.58353101911235</v>
@@ -16986,7 +16986,7 @@
         <v>44.482038619906902</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
         <v>39</v>
       </c>
@@ -17000,7 +17000,7 @@
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -17032,7 +17032,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -17068,7 +17068,7 @@
         <v>0.70761819591925246</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -17104,7 +17104,7 @@
         <v>2.489628357308284</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -17140,7 +17140,7 @@
         <v>0.75739698949278988</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -17176,7 +17176,7 @@
         <v>2.8269081107659133</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -17212,7 +17212,7 @@
         <v>3.6601326859910159</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -17248,7 +17248,7 @@
         <v>-0.48076649434011642</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -17272,7 +17272,7 @@
         <v>41.193849129957435</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B21">
         <f>B20+SUM(C14:C19)</f>
         <v>23.522040289058957</v>
@@ -17290,7 +17290,7 @@
         <v>51.154766975094574</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -17349,7 +17349,7 @@
         <v>-47.20187844607711</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -17408,7 +17408,7 @@
         <v>41.824111784650746</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -17431,7 +17431,7 @@
         <v>-58.872128058465933</v>
       </c>
       <c r="H27">
-        <v>-38.248102164507316</v>
+        <v>-38.248102164507301</v>
       </c>
       <c r="I27">
         <v>-52.725041574509376</v>
@@ -17467,7 +17467,7 @@
         <v>-48.008319072348975</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -17542,13 +17542,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B1D724-B707-43A0-A86B-444A72745155}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E10" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:O28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -17592,7 +17592,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -17636,7 +17636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -17680,7 +17680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -17724,7 +17724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -17768,7 +17768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E6">
         <v>5</v>
       </c>
@@ -17803,7 +17803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E7">
         <v>6</v>
       </c>
@@ -17838,7 +17838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E8">
         <v>7</v>
       </c>
@@ -17873,7 +17873,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E9">
         <v>8</v>
       </c>
@@ -17908,7 +17908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E10">
         <v>9</v>
       </c>
@@ -17943,7 +17943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E11">
         <v>10</v>
       </c>
@@ -17978,7 +17978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E12">
         <v>11</v>
       </c>
@@ -18013,7 +18013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E13">
         <v>12</v>
       </c>
@@ -18048,7 +18048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E14">
         <v>13</v>
       </c>
@@ -18083,7 +18083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E15">
         <v>14</v>
       </c>
@@ -18118,7 +18118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E16">
         <v>15</v>
       </c>
@@ -18153,7 +18153,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:15" x14ac:dyDescent="0.4">
       <c r="E17">
         <v>16</v>
       </c>
@@ -18188,7 +18188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:15" x14ac:dyDescent="0.4">
       <c r="E18">
         <v>17</v>
       </c>
@@ -18223,7 +18223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:15" x14ac:dyDescent="0.4">
       <c r="E19">
         <v>18</v>
       </c>
@@ -18258,7 +18258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:15" x14ac:dyDescent="0.4">
       <c r="E20">
         <v>19</v>
       </c>
@@ -18293,7 +18293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:15" x14ac:dyDescent="0.4">
       <c r="E21">
         <v>20</v>
       </c>
@@ -18328,7 +18328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:15" x14ac:dyDescent="0.4">
       <c r="E22">
         <v>21</v>
       </c>
@@ -18363,7 +18363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:15" x14ac:dyDescent="0.4">
       <c r="E23">
         <v>22</v>
       </c>
@@ -18398,7 +18398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:15" x14ac:dyDescent="0.4">
       <c r="E24">
         <v>23</v>
       </c>
@@ -18433,7 +18433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:15" x14ac:dyDescent="0.4">
       <c r="E25">
         <v>24</v>
       </c>
@@ -18468,7 +18468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:15" x14ac:dyDescent="0.4">
       <c r="E26">
         <v>25</v>
       </c>
@@ -18503,7 +18503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:15" x14ac:dyDescent="0.4">
       <c r="E27">
         <v>26</v>
       </c>
@@ -18538,7 +18538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:15" x14ac:dyDescent="0.4">
       <c r="E28">
         <v>27</v>
       </c>
